--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BEC572-CD03-4831-BCA0-CC0F34E7B815}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F3595-5129-4513-92EA-DE351DF0F87D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -611,6 +611,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,11 +1079,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1144,7 +1148,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92)  &gt; 16, SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92) - 16,0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) &gt; 16, SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) - 16,0)</f>
@@ -1224,7 +1228,7 @@
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 16, IF(H10+I4 &gt; 16, 16- I4, H10),0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
@@ -1293,7 +1297,7 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 16 &gt; 0, K4+H4 - 16, 0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 16 &gt; 0, H10+I4 - 16, 0)</f>
@@ -1756,11 +1760,15 @@
       <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -3283,7 +3291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F3595-5129-4513-92EA-DE351DF0F87D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE6149-5AFA-463D-98AE-79FA87D8D97F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -611,10 +611,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,11 +1075,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,7 +1144,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92)  &gt; 16, SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92) - 16,0)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) &gt; 16, SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) - 16,0)</f>
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 16, IF(H10+I4 &gt; 16, 16- I4, H10),0)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
@@ -1297,7 +1293,7 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 16 &gt; 0, K4+H4 - 16, 0)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 16 &gt; 0, H10+I4 - 16, 0)</f>
@@ -1710,11 +1706,15 @@
       <c r="D28" s="24">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2154,7 +2154,9 @@
       <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="16">
         <f t="shared" si="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE6149-5AFA-463D-98AE-79FA87D8D97F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756EDC8C-A917-41FB-A04B-5F3D26701527}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -936,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -2154,9 +2154,7 @@
       <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="3"/>
       <c r="G46" s="16">
         <f t="shared" si="0"/>
@@ -3293,7 +3291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756EDC8C-A917-41FB-A04B-5F3D26701527}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE6149-5AFA-463D-98AE-79FA87D8D97F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -936,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -2154,7 +2154,9 @@
       <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="16">
         <f t="shared" si="0"/>
@@ -3291,7 +3293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE6149-5AFA-463D-98AE-79FA87D8D97F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D117F94-911A-4776-A95B-7742C245B6C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,11 +1075,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92)  &gt; 16, SUMIF(E4:E89,"=I",G4:G89) + SUMIF(C91:C92, "X",B91:B92) - 16,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) &gt; 16, SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) - 16,0)</f>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1293,11 +1293,11 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 16 &gt; 0, K4+H4 - 16, 0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 16 &gt; 0, H10+I4 - 16, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 16 &gt; 0, I10+J4 - 16, 0)</f>
@@ -2157,10 +2157,12 @@
       <c r="E46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G46" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -3293,7 +3295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D117F94-911A-4776-A95B-7742C245B6C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50475E-0472-47D0-9AA1-BDB5F1985F21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) &gt; 16, 16, SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92) &gt; 16, 16, SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92))</f>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 16 &gt; 0, H10+I4 - 16, 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 16 &gt; 0, I10+J4 - 16, 0)</f>
@@ -3141,7 +3141,9 @@
       <c r="C91" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -3161,7 +3163,9 @@
       <c r="C92" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -3295,7 +3299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50475E-0472-47D0-9AA1-BDB5F1985F21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3B980-6DDB-449D-AAF6-3238216A55E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -936,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1070,7 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92) &gt; 16, 16, SUMIF(E4:E89,"=II",G4:G89) + SUMIF(D91:D92, "X",B91:B92))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92) &gt; 16, 16, SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92))</f>
@@ -1079,7 +1082,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,7 +1231,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 16 &gt; 0, H10+I4 - 16, 0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 16 &gt; 0, I10+J4 - 16, 0)</f>
@@ -2654,11 +2657,15 @@
       <c r="D68" s="24">
         <v>3</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G68" s="16">
         <f t="shared" ref="G68:G89" si="1" xml:space="preserve"> IF(EXACT(F68,"X"),IF(EXACT(E68,"I"),$B68,IF(EXACT(E68,"II"),$C68,IF(EXACT(E68,"III"),$D68,0))),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -3299,7 +3306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3B980-6DDB-449D-AAF6-3238216A55E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B0017-E292-415A-9E23-29A0688CF89A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92) &gt; 16, 16, SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -3151,7 +3151,9 @@
       <c r="D91" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -3173,7 +3175,9 @@
       <c r="D92" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -3306,7 +3310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B0017-E292-415A-9E23-29A0688CF89A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBCAD4B-B594-42E6-BBEA-9CB75881EDDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -939,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1077,7 @@
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92) &gt; 16, 16, SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
@@ -1082,7 +1085,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1231,7 +1234,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -2632,11 +2635,15 @@
       <c r="D67" s="24">
         <v>3</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
+      <c r="E67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G67" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -3310,7 +3317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Project Rubric (062020).xlsx
+++ b/Project Rubric (062020).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBCAD4B-B594-42E6-BBEA-9CB75881EDDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF78531B-F154-4A2C-85D0-A5A1EBCF44BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>Milestone I Points</t>
   </si>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92) &gt; 16, 16, SUMIF(E4:E89,"=III",G4:G89) + SUMIF(E91:E92, "X",B91:B92))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G89) + SUMIF(C91:C92, "X",B91:B92) + SUMIF(D91:D92, "X",B91:B92) + SUMIF(E91:E92, "X",B91:B92)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 16, IF(I10+J4 &gt; 16, 16- J4, I10),0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -3012,11 +3012,15 @@
       <c r="D84" s="24">
         <v>3</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
+      <c r="E84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G84" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -3317,7 +3321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
